--- a/WebTest/自动化用例分解.xlsx
+++ b/WebTest/自动化用例分解.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="199">
   <si>
     <t>客户管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -934,6 +934,18 @@
   </si>
   <si>
     <t>业务员相关,暂时不做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐育辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuyanng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,7 +1038,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1075,12 +1087,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1110,6 +1135,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1459,11 +1486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1477,9 +1504,10 @@
     <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -1505,11 +1533,14 @@
       <c r="I1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1533,9 +1564,9 @@
       <c r="I2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1551,9 +1582,9 @@
       <c r="I3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1569,9 +1600,9 @@
       <c r="I4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1587,9 +1618,9 @@
       <c r="I5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1605,9 +1636,9 @@
       <c r="I6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1623,9 +1654,9 @@
       <c r="I7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1641,9 +1672,9 @@
       <c r="I8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1659,9 +1690,9 @@
       <c r="I9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1679,9 +1710,9 @@
       <c r="I10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1697,9 +1728,9 @@
       <c r="I11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1717,9 +1748,9 @@
       <c r="I12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1735,9 +1766,9 @@
       <c r="I13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1753,9 +1784,9 @@
       <c r="I14" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1771,9 +1802,9 @@
       <c r="I15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1791,7 +1822,7 @@
       <c r="I16" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -1810,7 +1841,7 @@
       <c r="I17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="16" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1830,7 +1861,7 @@
       <c r="I18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="16" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1850,7 +1881,7 @@
       <c r="I19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="16" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1870,7 +1901,7 @@
       <c r="I20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="16" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1890,7 +1921,7 @@
       <c r="I21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="16" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1910,7 +1941,7 @@
       <c r="I22" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="16" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1930,7 +1961,7 @@
       <c r="I23" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="16" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1950,7 +1981,7 @@
       <c r="I24" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1968,7 +1999,7 @@
       <c r="I25" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -1988,7 +2019,7 @@
       <c r="I26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J26" s="1"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -2008,7 +2039,7 @@
       <c r="I27" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J27" s="1"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -2026,7 +2057,7 @@
       <c r="I28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J28" s="1"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -2044,7 +2075,7 @@
       <c r="I29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -2062,7 +2093,7 @@
       <c r="I30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -2080,7 +2111,7 @@
       <c r="I31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -2098,9 +2129,9 @@
       <c r="I32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2116,9 +2147,9 @@
       <c r="I33" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2134,9 +2165,9 @@
       <c r="I34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2152,9 +2183,9 @@
       <c r="I35" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2170,9 +2201,9 @@
       <c r="I36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2188,9 +2219,9 @@
       <c r="I37" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2208,9 +2239,9 @@
       <c r="I38" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2227,9 +2258,9 @@
       <c r="I39" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2245,9 +2276,9 @@
       <c r="I40" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2263,9 +2294,9 @@
       <c r="I41" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2281,9 +2312,9 @@
       <c r="I42" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
@@ -2301,11 +2332,14 @@
       <c r="I43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="16" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
@@ -2323,11 +2357,14 @@
       <c r="I44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="16" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>55</v>
@@ -2345,9 +2382,9 @@
       <c r="I45" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2363,9 +2400,9 @@
       <c r="I46" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -2387,9 +2424,9 @@
       <c r="I47" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2401,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="J48" s="16"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
@@ -2415,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="16"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
@@ -2429,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="J50" s="16"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -2449,7 +2486,7 @@
       <c r="I51" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J51" s="1"/>
+      <c r="J51" s="16"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
@@ -2469,7 +2506,7 @@
       <c r="I52" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J52" s="1"/>
+      <c r="J52" s="16"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -2489,7 +2526,7 @@
       <c r="I53" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J53" s="1"/>
+      <c r="J53" s="16"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
@@ -2511,7 +2548,7 @@
       <c r="I54" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J54" s="1"/>
+      <c r="J54" s="16"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
@@ -2531,7 +2568,7 @@
       <c r="I55" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J55" s="1"/>
+      <c r="J55" s="16"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -2551,7 +2588,7 @@
       <c r="I56" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J56" s="1"/>
+      <c r="J56" s="16"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
@@ -2571,7 +2608,7 @@
       <c r="I57" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J57" s="1"/>
+      <c r="J57" s="16"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
@@ -2593,7 +2630,7 @@
       <c r="I58" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J58" s="1"/>
+      <c r="J58" s="16"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
@@ -2613,7 +2650,7 @@
       <c r="I59" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J59" s="1"/>
+      <c r="J59" s="16"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
@@ -2633,7 +2670,7 @@
       <c r="I60" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J60" s="1"/>
+      <c r="J60" s="16"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
@@ -2653,7 +2690,7 @@
       <c r="I61" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J61" s="1"/>
+      <c r="J61" s="16"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
@@ -2675,7 +2712,7 @@
       <c r="I62" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J62" s="1"/>
+      <c r="J62" s="16"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
@@ -2695,7 +2732,7 @@
       <c r="I63" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J63" s="1"/>
+      <c r="J63" s="16"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
@@ -2715,7 +2752,7 @@
       <c r="I64" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J64" s="1"/>
+      <c r="J64" s="16"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
@@ -2737,7 +2774,7 @@
       <c r="I65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="16" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2757,7 +2794,7 @@
       <c r="I66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J66" s="1"/>
+      <c r="J66" s="16"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -2781,7 +2818,7 @@
       <c r="I67" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2801,7 +2838,7 @@
       <c r="I68" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J68" s="1"/>
+      <c r="J68" s="16"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -2823,7 +2860,7 @@
       <c r="I69" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J69" s="1"/>
+      <c r="J69" s="16"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
@@ -2841,7 +2878,7 @@
       <c r="I70" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J70" s="1"/>
+      <c r="J70" s="16"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -2861,7 +2898,7 @@
       <c r="I71" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J71" s="1"/>
+      <c r="J71" s="16"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
@@ -2877,7 +2914,7 @@
       <c r="I72" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J72" s="1"/>
+      <c r="J72" s="16"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
@@ -2893,7 +2930,7 @@
       <c r="I73" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J73" s="1"/>
+      <c r="J73" s="16"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
@@ -2909,7 +2946,7 @@
       <c r="I74" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J74" s="1"/>
+      <c r="J74" s="16"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
